--- a/DOCUMENTAÇÃO/VPV.xlsx
+++ b/DOCUMENTAÇÃO/VPV.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ONG.se\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SPTECH\VPV\DOCUMENTAÇÃO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857637F-6C71-4209-8461-D75349A526A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DD8B946-54B1-4269-9E19-AFF0AC06CBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{9EEE5D4A-6920-49D7-806D-2001338F871D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{9EEE5D4A-6920-49D7-806D-2001338F871D}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="105">
   <si>
     <t>Cadastro de voluntario</t>
   </si>
@@ -341,10 +343,43 @@
     <t>O voluntario deve ter acesso a uma pagina exclusiva possuindo informação das ONGs que faz parte além da opção de entrar em novas a partir do código de ativação.</t>
   </si>
   <si>
-    <t>PROGRESSÃO</t>
-  </si>
-  <si>
     <t>PP</t>
+  </si>
+  <si>
+    <t>Documentação a respeito do projeto</t>
+  </si>
+  <si>
+    <t>Organização e priorização do backlog</t>
+  </si>
+  <si>
+    <t>Organização das ferramentas de gestão</t>
+  </si>
+  <si>
+    <t>Modelo lógico do banco de dados</t>
+  </si>
+  <si>
+    <t>Comandos no banco de dados</t>
+  </si>
+  <si>
+    <t>Construção do banco de dados na maquina virtual</t>
+  </si>
+  <si>
+    <t>Contexto do projeto</t>
+  </si>
+  <si>
+    <t>Planejamento</t>
+  </si>
+  <si>
+    <t>Construção de uma dashboard do projeto</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>BURNDOW</t>
+  </si>
+  <si>
+    <t>FEITO</t>
   </si>
 </sst>
 </file>
@@ -618,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -764,12 +799,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -777,7 +806,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -809,7 +845,49 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.89996032593768116"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -840,8 +918,1882 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45464309842818623"/>
+          <c:y val="2.564102564102564E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11274801355980844"/>
+          <c:y val="7.9503247190255061E-2"/>
+          <c:w val="0.75741143974315284"/>
+          <c:h val="0.74088321892455755"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Planilha1!$K$21:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$21:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C730-42F8-9411-2534BE62FC4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="646243264"/>
+        <c:axId val="646243624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="646243264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646243624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="646243624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646243264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9491088670863727E-2"/>
+          <c:y val="0.86887812100410522"/>
+          <c:w val="0.82179972378167987"/>
+          <c:h val="0.13020845951948312"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.45464309842818623"/>
+          <c:y val="2.564102564102564E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11274801355980844"/>
+          <c:y val="7.9503247190255061E-2"/>
+          <c:w val="0.75741143974315284"/>
+          <c:h val="0.74088321892455755"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Planilha1 (2)'!$L$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BURNDOW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Planilha1 (2)'!$K$21:$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SPRINT 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SPRINT 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SPRINT 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Planilha1 (2)'!$L$21:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E2E6-415E-9871-00BD89CE4776}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="646243264"/>
+        <c:axId val="646243624"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="646243264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646243624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="646243624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="646243264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9491088670863727E-2"/>
+          <c:y val="0.86887812100410522"/>
+          <c:w val="0.82179972378167987"/>
+          <c:h val="0.13020845951948312"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D58C2911-B030-2792-6E11-A7BFEA87B0B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAAB69B5-973C-4E01-BF2E-AF16C51E7FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1161,10 +3113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C66256D-2E02-441F-8C13-8346AA787FEB}">
-  <dimension ref="B1:Y106"/>
+  <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A22" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1176,109 +3128,1148 @@
     <col min="10" max="16384" width="50.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="5"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="7"/>
-      <c r="C3" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4"/>
-      <c r="C4" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="I7" s="2"/>
       <c r="O7" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+    </row>
+    <row r="9" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="8" t="str" cm="1">
+        <f t="array" ref="G9:G33">IF(F9:F33="PP", 3, IF(F9:F33="P", 5, IF(F9:F33="M", 8, IF(F9:F33="G", 13, IF(F9:F33="GG", 21, "")))))</f>
+        <v/>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+    </row>
+    <row r="10" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="22">
+        <v>21</v>
+      </c>
+      <c r="H10" s="46">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+    </row>
+    <row r="11" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="28" t="str">
+        <v/>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="2"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+    </row>
+    <row r="12" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="G12" s="16" t="str">
+        <v/>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="6"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="35">
+        <v>8</v>
+      </c>
+      <c r="H13" s="39">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="6"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+    </row>
+    <row r="14" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16" t="str">
+        <v/>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="6"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+    </row>
+    <row r="15" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="18">
+        <v>8</v>
+      </c>
+      <c r="H15" s="44">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+    </row>
+    <row r="16" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="str">
+        <v/>
+      </c>
+      <c r="H16" s="27"/>
+      <c r="I16" s="2"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="18">
+        <v>8</v>
+      </c>
+      <c r="H17" s="36">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="6"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+    </row>
+    <row r="18" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="str">
+        <v/>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="2"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+    </row>
+    <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="18">
+        <v>8</v>
+      </c>
+      <c r="H19" s="45">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+    </row>
+    <row r="20" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="str">
+        <v/>
+      </c>
+      <c r="H20" s="27"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="18">
+        <v>5</v>
+      </c>
+      <c r="H21" s="43">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="49"/>
+    </row>
+    <row r="22" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="str">
+        <v/>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="2"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="49"/>
+    </row>
+    <row r="23" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="22">
+        <v>5</v>
+      </c>
+      <c r="H23" s="23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="49"/>
+    </row>
+    <row r="24" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="str">
+        <v/>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="2"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="49"/>
+    </row>
+    <row r="25" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="26">
+        <v>8</v>
+      </c>
+      <c r="H25" s="19">
+        <v>2</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="49"/>
+    </row>
+    <row r="26" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14" t="str">
+        <v/>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="2"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="49"/>
+    </row>
+    <row r="27" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="28">
+        <v>8</v>
+      </c>
+      <c r="H27" s="21">
+        <v>3</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="49"/>
+    </row>
+    <row r="28" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1">
+        <v>13</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="49"/>
+    </row>
+    <row r="29" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="41">
+        <v>21</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="49"/>
+    </row>
+    <row r="30" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="33" t="str">
+        <v/>
+      </c>
+      <c r="H30" s="42"/>
+      <c r="I30" s="2"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="49"/>
+    </row>
+    <row r="31" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="5">
+        <v>21</v>
+      </c>
+      <c r="H31" s="22">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="49"/>
+    </row>
+    <row r="32" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="38" t="str">
+        <v/>
+      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="2"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="49"/>
+    </row>
+    <row r="33" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="28">
+        <v>13</v>
+      </c>
+      <c r="H33" s="28">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="49"/>
+    </row>
+    <row r="34" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="49"/>
+    </row>
+    <row r="35" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="49"/>
+    </row>
+    <row r="36" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C9:C11">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>$C$9:$E$9=$F:$F="ESSENCIAL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:D9 C10:E12 E13 C14:E17">
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>$F:$F="ESSENCIAL"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="11" priority="4">
+      <formula>$H$9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9:H33">
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>$H9=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>$H9=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$H9=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W10:W12">
+    <cfRule type="expression" dxfId="7" priority="13">
+      <formula>$H$9:$H$33=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34526F60-88F7-4510-8344-DC5457706DDB}">
+  <dimension ref="A1:Y47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D16" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="50.7109375" style="2"/>
+    <col min="3" max="4" width="50.7109375" style="5"/>
+    <col min="5" max="5" width="140.140625" style="2" customWidth="1"/>
+    <col min="6" max="9" width="50.7109375" style="5"/>
+    <col min="10" max="16384" width="50.7109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="5"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="5"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="I7" s="2"/>
+      <c r="O7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E8" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="I8" s="2"/>
       <c r="K8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1316,24 +4307,25 @@
       </c>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="8" t="str" cm="1">
-        <f t="array" ref="H9:H106">IF(G9:G106="PP", 3, IF(G9:G106="P", 5, IF(G9:G106="M", 8, IF(G9:G106="G", 13, IF(G9:G106="GG", 21, "")))))</f>
+      <c r="E9" s="8"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="8" t="str" cm="1">
+        <f t="array" ref="G9:G33">IF(F9:F33="PP", 3, IF(F9:F33="P", 5, IF(F9:F33="M", 8, IF(F9:F33="G", 13, IF(F9:F33="GG", 21, "")))))</f>
         <v/>
       </c>
-      <c r="I9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="2"/>
       <c r="K9" s="1" t="s">
         <v>73</v>
       </c>
@@ -1343,8 +4335,12 @@
       <c r="M9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="1"/>
+      <c r="N9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1356,15 +4352,15 @@
         <v>1</v>
       </c>
       <c r="T9" s="3" cm="1">
-        <f t="array" ref="T9:T35">IF(I10:I36=1, H10:H34, )</f>
-        <v>21</v>
+        <f t="array" ref="T9:T33">IF(H9:H33=1,_xlfn.ANCHORARRAY( G9), )</f>
+        <v>0</v>
       </c>
       <c r="U9" s="3" cm="1">
         <f t="array" ref="U9:U17">IF(R9:R17=1,_xlfn.ANCHORARRAY( Q9), )</f>
         <v>13</v>
       </c>
       <c r="V9" s="6" cm="1">
-        <f t="array" ref="V9:V35">IF(I10:I36=2, H10:H34, )</f>
+        <f t="array" ref="V9:V33">IF(H9:H33=2,_xlfn.ANCHORARRAY( G9), )</f>
         <v>0</v>
       </c>
       <c r="W9" s="6" cm="1">
@@ -1372,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="7" cm="1">
-        <f t="array" ref="X9:X35">IF(I10:I36=3, H10:H34, )</f>
+        <f t="array" ref="X9:X33">IF(H9:H33=3,_xlfn.ANCHORARRAY( G9), )</f>
         <v>0</v>
       </c>
       <c r="Y9" s="7" cm="1">
@@ -1380,29 +4376,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="22">
+      <c r="G10" s="22">
         <v>21</v>
       </c>
-      <c r="I10" s="46">
+      <c r="H10" s="46">
         <v>1</v>
       </c>
+      <c r="I10" s="2"/>
       <c r="K10" s="1" t="s">
         <v>73</v>
       </c>
@@ -1412,8 +4409,12 @@
       <c r="M10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="9"/>
-      <c r="O10" s="1"/>
+      <c r="N10" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1424,7 +4425,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="U10" s="3">
         <v>13</v>
@@ -1442,23 +4443,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="28" t="str">
+      <c r="E11" s="28"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="28" t="str">
         <v/>
       </c>
-      <c r="I11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="2"/>
       <c r="K11" s="1" t="s">
         <v>43</v>
       </c>
@@ -1468,8 +4470,12 @@
       <c r="M11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="9"/>
-      <c r="O11" s="1"/>
+      <c r="N11" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1498,23 +4504,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="16" t="str">
+      <c r="E12" s="22"/>
+      <c r="G12" s="16" t="str">
         <v/>
       </c>
-      <c r="I12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="2"/>
       <c r="K12" s="1" t="s">
         <v>43</v>
       </c>
@@ -1524,8 +4530,12 @@
       <c r="M12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N12" s="9"/>
-      <c r="O12" s="1"/>
+      <c r="N12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P12" s="1" t="s">
         <v>47</v>
       </c>
@@ -1536,7 +4546,7 @@
         <v>2</v>
       </c>
       <c r="T12" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
@@ -1554,29 +4564,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="5" t="s">
+      <c r="B13" s="1"/>
+      <c r="C13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="E13" s="34" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="35">
+      <c r="G13" s="35">
         <v>8</v>
       </c>
-      <c r="I13" s="39">
+      <c r="H13" s="39">
         <v>1</v>
       </c>
+      <c r="I13" s="2"/>
       <c r="K13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1586,10 +4597,14 @@
       <c r="M13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="9"/>
-      <c r="O13" s="1"/>
+      <c r="N13" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="1">
         <v>3</v>
@@ -1598,7 +4613,7 @@
         <v>2</v>
       </c>
       <c r="T13" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U13" s="3">
         <v>0</v>
@@ -1616,23 +4631,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16" t="str">
+      <c r="E14" s="14"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16" t="str">
         <v/>
       </c>
-      <c r="I14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="2"/>
       <c r="K14" s="1" t="s">
         <v>43</v>
       </c>
@@ -1642,8 +4658,12 @@
       <c r="M14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N14" s="9"/>
-      <c r="O14" s="1"/>
+      <c r="N14" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1660,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W14" s="6">
         <v>5</v>
@@ -1672,29 +4692,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="F15" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="18">
+      <c r="G15" s="18">
         <v>8</v>
       </c>
-      <c r="I15" s="44">
+      <c r="H15" s="44">
         <v>2</v>
       </c>
+      <c r="I15" s="2"/>
       <c r="K15" s="1" t="s">
         <v>73</v>
       </c>
@@ -1704,8 +4725,12 @@
       <c r="M15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="1"/>
+      <c r="N15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P15" s="1" t="s">
         <v>48</v>
       </c>
@@ -1722,7 +4747,7 @@
         <v>5</v>
       </c>
       <c r="V15" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W15" s="6">
         <v>0</v>
@@ -1734,23 +4759,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16" t="str">
+      <c r="E16" s="14"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16" t="str">
         <v/>
       </c>
-      <c r="I16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="2"/>
       <c r="K16" s="1" t="s">
         <v>73</v>
       </c>
@@ -1760,8 +4786,12 @@
       <c r="M16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="1"/>
+      <c r="N16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P16" s="1" t="s">
         <v>48</v>
       </c>
@@ -1772,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U16" s="3">
         <v>5</v>
@@ -1790,29 +4820,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="F17" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="18">
+      <c r="G17" s="18">
         <v>8</v>
       </c>
-      <c r="I17" s="36">
+      <c r="H17" s="36">
         <v>1</v>
       </c>
+      <c r="I17" s="2"/>
       <c r="K17" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +4853,12 @@
       <c r="M17" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="1"/>
+      <c r="N17" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="P17" s="1" t="s">
         <v>81</v>
       </c>
@@ -1834,7 +4869,7 @@
         <v>2</v>
       </c>
       <c r="T17" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U17" s="3">
         <v>0</v>
@@ -1852,34 +4887,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1" t="s">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16" t="str">
+      <c r="E18" s="14"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16" t="str">
         <v/>
       </c>
-      <c r="I18" s="12"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="2"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
       <c r="T18" s="3">
         <v>0</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W18" s="6"/>
       <c r="X18" s="7">
@@ -1887,35 +4922,36 @@
       </c>
       <c r="Y18" s="7"/>
     </row>
-    <row r="19" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1" t="s">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="F19" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="18">
+      <c r="G19" s="18">
         <v>8</v>
       </c>
-      <c r="I19" s="45">
+      <c r="H19" s="45">
         <v>2</v>
       </c>
+      <c r="I19" s="2"/>
       <c r="T19" s="3">
         <v>0</v>
       </c>
       <c r="U19" s="3"/>
       <c r="V19" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W19" s="6"/>
       <c r="X19" s="7">
@@ -1923,30 +4959,31 @@
       </c>
       <c r="Y19" s="7"/>
     </row>
-    <row r="20" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1" t="s">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="str">
+      <c r="E20" s="14"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16" t="str">
         <v/>
       </c>
-      <c r="I20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="2"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="50"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
+        <v>103</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1956,196 +4993,202 @@
       </c>
       <c r="W20" s="6"/>
       <c r="X20" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="7"/>
+    </row>
+    <row r="21" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="18">
         <v>5</v>
       </c>
-      <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="1" t="s">
+      <c r="H21" s="43">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="K21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="1">
+        <f>SUM(L22:L24)</f>
+        <v>194</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="6">
+        <v>0</v>
+      </c>
+      <c r="W21" s="6"/>
+      <c r="X21" s="7">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="49"/>
+    </row>
+    <row r="22" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="18">
-        <v>5</v>
-      </c>
-      <c r="I21" s="43">
-        <v>3</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14" t="str">
+        <v/>
+      </c>
+      <c r="H22" s="21"/>
+      <c r="I22" s="2"/>
+      <c r="K22" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L22" s="1">
         <f>SUM(T9:U35)</f>
         <v>81</v>
       </c>
-      <c r="M21" s="50"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3"/>
-      <c r="V21" s="6">
-        <v>0</v>
-      </c>
-      <c r="W21" s="6"/>
-      <c r="X21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="51"/>
-    </row>
-    <row r="22" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
+      <c r="M22" s="1"/>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="6">
+        <v>0</v>
+      </c>
+      <c r="W22" s="6"/>
+      <c r="X22" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="49"/>
+    </row>
+    <row r="23" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14" t="str">
-        <v/>
-      </c>
-      <c r="I22" s="21"/>
-      <c r="K22" s="1" t="s">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="22">
+        <v>5</v>
+      </c>
+      <c r="H23" s="23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="K23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L23" s="1">
         <f>SUM(V9:W35)</f>
         <v>95</v>
       </c>
-      <c r="M22" s="50"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3"/>
-      <c r="V22" s="6">
-        <v>0</v>
-      </c>
-      <c r="W22" s="6"/>
-      <c r="X22" s="7">
+      <c r="M23" s="1"/>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6"/>
+      <c r="X23" s="7">
         <v>5</v>
       </c>
-      <c r="Y22" s="51"/>
-    </row>
-    <row r="23" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="Y23" s="49"/>
+    </row>
+    <row r="24" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H23" s="22">
-        <v>5</v>
-      </c>
-      <c r="I23" s="23">
-        <v>3</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24" t="str">
+        <v/>
+      </c>
+      <c r="H24" s="42"/>
+      <c r="I24" s="2"/>
+      <c r="K24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L24" s="1">
         <f>SUM(X9:Y35)</f>
         <v>18</v>
       </c>
-      <c r="M23" s="5"/>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3"/>
-      <c r="V23" s="6">
-        <v>0</v>
-      </c>
-      <c r="W23" s="6"/>
-      <c r="X23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="51"/>
-    </row>
-    <row r="24" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24" t="str">
-        <v/>
-      </c>
-      <c r="I24" s="42"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="M24" s="1"/>
       <c r="T24" s="3">
         <v>0</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W24" s="6"/>
       <c r="X24" s="7">
         <v>0</v>
       </c>
-      <c r="Y24" s="51"/>
-    </row>
-    <row r="25" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
+      <c r="Y24" s="49"/>
+    </row>
+    <row r="25" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="E25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="F25" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="H25" s="26">
+      <c r="G25" s="26">
         <v>8</v>
       </c>
-      <c r="I25" s="19">
+      <c r="H25" s="19">
         <v>2</v>
       </c>
+      <c r="I25" s="2"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -2154,31 +5197,32 @@
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W25" s="6"/>
       <c r="X25" s="7">
         <v>0</v>
       </c>
-      <c r="Y25" s="51"/>
-    </row>
-    <row r="26" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
+      <c r="Y25" s="49"/>
+    </row>
+    <row r="26" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="E26" s="14"/>
       <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14" t="str">
+      <c r="G26" s="14" t="str">
         <v/>
       </c>
-      <c r="I26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="2"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -2191,33 +5235,34 @@
       </c>
       <c r="W26" s="6"/>
       <c r="X26" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="49"/>
+    </row>
+    <row r="27" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="28">
         <v>8</v>
       </c>
-      <c r="Y26" s="51"/>
-    </row>
-    <row r="27" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="28">
-        <v>8</v>
-      </c>
-      <c r="I27" s="21">
+      <c r="H27" s="21">
         <v>3</v>
       </c>
+      <c r="I27" s="2"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -2230,33 +5275,34 @@
       </c>
       <c r="W27" s="6"/>
       <c r="X27" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="51"/>
-    </row>
-    <row r="28" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="49"/>
+    </row>
+    <row r="28" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="1">
+      <c r="G28" s="1">
         <v>13</v>
       </c>
-      <c r="I28" s="29" t="s">
+      <c r="H28" s="29" t="s">
         <v>82</v>
       </c>
+      <c r="I28" s="2"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -2271,31 +5317,32 @@
       <c r="X28" s="7">
         <v>0</v>
       </c>
-      <c r="Y28" s="51"/>
-    </row>
-    <row r="29" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="30" t="s">
+      <c r="Y28" s="49"/>
+    </row>
+    <row r="29" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="D29" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="E29" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G29" s="41" t="s">
+      <c r="F29" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="41">
+      <c r="G29" s="41">
         <v>21</v>
       </c>
-      <c r="I29" s="40" t="s">
+      <c r="H29" s="40" t="s">
         <v>82</v>
       </c>
+      <c r="I29" s="2"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -2310,27 +5357,28 @@
       <c r="X29" s="7">
         <v>0</v>
       </c>
-      <c r="Y29" s="51"/>
-    </row>
-    <row r="30" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="30" t="s">
+      <c r="Y29" s="49"/>
+    </row>
+    <row r="30" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="E30" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="33" t="str">
+      <c r="F30" s="8"/>
+      <c r="G30" s="33" t="str">
         <v/>
       </c>
-      <c r="I30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="2"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -2339,37 +5387,38 @@
       </c>
       <c r="U30" s="3"/>
       <c r="V30" s="6">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="W30" s="6"/>
       <c r="X30" s="7">
         <v>0</v>
       </c>
-      <c r="Y30" s="51"/>
-    </row>
-    <row r="31" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="30" t="s">
+      <c r="Y30" s="49"/>
+    </row>
+    <row r="31" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="E31" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="F31" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="H31" s="5">
+      <c r="G31" s="5">
         <v>21</v>
       </c>
-      <c r="I31" s="22">
+      <c r="H31" s="22">
         <v>2</v>
       </c>
+      <c r="I31" s="2"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -2378,33 +5427,34 @@
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="W31" s="6"/>
       <c r="X31" s="7">
         <v>0</v>
       </c>
-      <c r="Y31" s="51"/>
-    </row>
-    <row r="32" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="30" t="s">
+      <c r="Y31" s="49"/>
+    </row>
+    <row r="32" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="E32" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="38" t="str">
+      <c r="F32" s="28"/>
+      <c r="G32" s="38" t="str">
         <v/>
       </c>
-      <c r="I32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="2"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -2413,37 +5463,38 @@
       </c>
       <c r="U32" s="3"/>
       <c r="V32" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="W32" s="6"/>
       <c r="X32" s="7">
         <v>0</v>
       </c>
-      <c r="Y32" s="51"/>
-    </row>
-    <row r="33" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="30" t="s">
+      <c r="Y32" s="49"/>
+    </row>
+    <row r="33" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1" t="s">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G33" s="28" t="s">
+      <c r="F33" s="28" t="s">
         <v>49</v>
       </c>
+      <c r="G33" s="28">
+        <v>13</v>
+      </c>
       <c r="H33" s="28">
-        <v>13</v>
-      </c>
-      <c r="I33" s="28">
         <v>2</v>
       </c>
+      <c r="I33" s="2"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -2452,835 +5503,121 @@
       </c>
       <c r="U33" s="3"/>
       <c r="V33" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="W33" s="6"/>
       <c r="X33" s="7">
         <v>0</v>
       </c>
-      <c r="Y33" s="51"/>
-    </row>
-    <row r="34" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Y33" s="49"/>
+    </row>
+    <row r="34" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="T34" s="3">
-        <v>0</v>
-      </c>
+      <c r="T34" s="3"/>
       <c r="U34" s="3"/>
-      <c r="V34" s="6">
-        <v>0</v>
-      </c>
+      <c r="V34" s="6"/>
       <c r="W34" s="6"/>
-      <c r="X34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="51"/>
-    </row>
-    <row r="35" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I35" s="5"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="49"/>
+    </row>
+    <row r="35" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
+      <c r="T35" s="3"/>
       <c r="U35" s="3"/>
-      <c r="V35" s="6">
-        <v>0</v>
-      </c>
+      <c r="V35" s="6"/>
       <c r="W35" s="6"/>
-      <c r="X35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="51"/>
-    </row>
-    <row r="36" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I36" s="5"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="49"/>
+    </row>
+    <row r="36" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I37" s="5"/>
+    <row r="37" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I38" s="5"/>
+    <row r="38" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I39" s="5"/>
+    <row r="39" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
     </row>
-    <row r="40" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I40" s="5"/>
+    <row r="40" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
     </row>
-    <row r="41" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I41" s="5"/>
+    <row r="41" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I42" s="5"/>
+    <row r="42" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I43" s="5"/>
+    <row r="43" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I44" s="5"/>
+    <row r="44" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I45" s="5"/>
+    <row r="45" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I46" s="5"/>
+    <row r="46" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I47" s="5"/>
+    <row r="47" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="2:25" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I48" s="5"/>
-    </row>
-    <row r="49" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I49" s="5"/>
-    </row>
-    <row r="50" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I50" s="5"/>
-    </row>
-    <row r="51" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I51" s="5"/>
-    </row>
-    <row r="52" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I52" s="5"/>
-    </row>
-    <row r="53" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I53" s="5"/>
-    </row>
-    <row r="54" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I54" s="5"/>
-    </row>
-    <row r="55" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I55" s="5"/>
-    </row>
-    <row r="56" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I56" s="5"/>
-    </row>
-    <row r="57" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I57" s="5"/>
-    </row>
-    <row r="58" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I58" s="5"/>
-    </row>
-    <row r="59" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I59" s="5"/>
-    </row>
-    <row r="60" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I60" s="5"/>
-    </row>
-    <row r="61" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I61" s="5"/>
-    </row>
-    <row r="62" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I62" s="5"/>
-    </row>
-    <row r="63" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I63" s="5"/>
-    </row>
-    <row r="64" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I64" s="5"/>
-    </row>
-    <row r="65" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I65" s="5"/>
-    </row>
-    <row r="66" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I66" s="5"/>
-    </row>
-    <row r="67" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I75" s="5"/>
-    </row>
-    <row r="76" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I76" s="5"/>
-    </row>
-    <row r="77" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I78" s="5"/>
-    </row>
-    <row r="79" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I79" s="5"/>
-    </row>
-    <row r="80" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I80" s="5"/>
-    </row>
-    <row r="81" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I81" s="5"/>
-    </row>
-    <row r="82" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I82" s="5"/>
-    </row>
-    <row r="83" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I85" s="5"/>
-    </row>
-    <row r="86" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I88" s="5"/>
-    </row>
-    <row r="89" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I89" s="5"/>
-    </row>
-    <row r="90" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I90" s="5"/>
-    </row>
-    <row r="91" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I91" s="5"/>
-    </row>
-    <row r="92" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I92" s="5"/>
-    </row>
-    <row r="93" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I93" s="5"/>
-    </row>
-    <row r="94" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I94" s="5"/>
-    </row>
-    <row r="95" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I96" s="5"/>
-    </row>
-    <row r="97" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I97" s="5"/>
-    </row>
-    <row r="98" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I98" s="5"/>
-    </row>
-    <row r="99" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I99" s="5"/>
-    </row>
-    <row r="100" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I100" s="5"/>
-    </row>
-    <row r="101" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I101" s="5"/>
-    </row>
-    <row r="102" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I102" s="5"/>
-    </row>
-    <row r="103" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I103" s="5"/>
-    </row>
-    <row r="104" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I104" s="5"/>
-    </row>
-    <row r="105" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I105" s="5"/>
-    </row>
-    <row r="106" spans="3:9" s="2" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5" t="str">
-        <v/>
-      </c>
-      <c r="I106" s="5"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D9:D11">
-    <cfRule type="expression" dxfId="6" priority="9">
-      <formula>$D$9:$F$9=$F:$F="ESSENCIAL"</formula>
+  <conditionalFormatting sqref="C9:C11">
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$C$9:$E$9=$F:$F="ESSENCIAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:E9 D14:F17 F13 D10:F12">
-    <cfRule type="expression" dxfId="5" priority="8">
+  <conditionalFormatting sqref="C9:D9 C10:E12 E13 C14:E17">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$F:$F="ESSENCIAL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W10:W12">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$I$9:$I$33=1</formula>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$H$9=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
+  <conditionalFormatting sqref="H9:H33">
     <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$I$9=1</formula>
+      <formula>$H9=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="5">
+      <formula>$H9=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="6">
+      <formula>$H9=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I9:I33">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$I9=3</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$I9=2</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$I9=1</formula>
+  <conditionalFormatting sqref="W10:W12">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>$H$9:$H$33=1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
